--- a/username and password.xlsx
+++ b/username and password.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\PROJECT WEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\PROJECT-WEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0301000E-0860-49F4-8F76-C030F05587A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843F3E33-152B-451E-8E97-BD2BFA3F708E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="690" yWindow="690" windowWidth="15585" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -36,16 +36,13 @@
     <t>harrykane123</t>
   </si>
   <si>
-    <t>HarryKane5</t>
-  </si>
-  <si>
-    <t>HarryKane6</t>
-  </si>
-  <si>
-    <t>HarryKane7</t>
-  </si>
-  <si>
-    <t>HarryKane8</t>
+    <t>HarryKane2</t>
+  </si>
+  <si>
+    <t>HarryKane3</t>
+  </si>
+  <si>
+    <t>HarryKane4</t>
   </si>
 </sst>
 </file>
@@ -363,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,14 +404,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
